--- a/test_suite_jbj06取件.xlsx
+++ b/test_suite_jbj06取件.xlsx
@@ -208,7 +208,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001_登录</t>
+    <t>jbj_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -220,7 +220,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>cnj_st_002_我的待办进入</t>
+    <t>jbj_st_002_我的待办进入</t>
   </si>
   <si>
     <t>海口政务系统-我的待办进入</t>
@@ -232,10 +232,10 @@
     <t>进入我的待办操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003_待办取件</t>
-  </si>
-  <si>
-    <t>cnj_st_004_取件查询</t>
+    <t>jbj_st_003_待办取件</t>
+  </si>
+  <si>
+    <t>jbj_st_004_取件查询</t>
   </si>
   <si>
     <t>取件-查询待办事项</t>
@@ -247,7 +247,7 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>cnj_st_005_取件流程</t>
+    <t>jbj_st_005_取件流程</t>
   </si>
   <si>
     <t>取件信息验证、通过</t>
@@ -330,6 +330,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -338,39 +360,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,48 +396,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,7 +413,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -467,12 +443,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -489,19 +489,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,163 +603,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +680,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,17 +713,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,8 +763,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -745,41 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
